--- a/archivosExcel/excel nuevo/matrizPalabrasR.xlsx
+++ b/archivosExcel/excel nuevo/matrizPalabrasR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lourd\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leojf\Documents\GitHub\ALexico\archivosExcel\excel nuevo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1006E3DF-1146-4AD9-BA1D-16ACF18ECEDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C24D05-B9EB-4794-AA88-F5A85D2A7C09}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10050" windowHeight="7185" xr2:uid="{FEF892F1-DE24-4D8E-95D6-F1A94063C71E}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t xml:space="preserve">            T11</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Metodo</t>
+  </si>
+  <si>
+    <t>Leer</t>
+  </si>
+  <si>
+    <t>T80</t>
   </si>
 </sst>
 </file>
@@ -459,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498A7E60-B553-4B4D-ADDD-BE1CDA32040E}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,6 +577,14 @@
         <v>25</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
